--- a/My SAS/SAS Graph/Graph_supporting_tools_list_in_SAS.xlsx
+++ b/My SAS/SAS Graph/Graph_supporting_tools_list_in_SAS.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NewDisk\SAS\My SAS\SAS Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54912F-E1E8-4594-9EAC-F49E8DA2AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0C5A40-FD5F-4B07-9F6C-A3150AAEF527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph - support chart" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Graph - support chart'!$B$3:$G$46</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -901,7 +904,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2010,6 +2013,7 @@
       <c r="G52" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:G46" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
